--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D02C4-91D2-4F87-A61F-85E16E74A7D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F867D3-A154-4967-8887-B446FE93F744}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>Design CCS</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>17.9 Probador de CI 74XX</t>
+  </si>
+  <si>
+    <t>Acercar cristal</t>
   </si>
 </sst>
 </file>
@@ -325,15 +328,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -341,24 +356,274 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,461 +906,1729 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="2" customWidth="1"/>
     <col min="2" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="14"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="14"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="14"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="14"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="14"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="14"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="14"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="14"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="14"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="14"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="14"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="14"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="14"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="B77" s="12"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="14"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="14"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="14"/>
+    </row>
+    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F867D3-A154-4967-8887-B446FE93F744}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E2464A-746D-4061-9EBB-8C59313F1F55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>Design CCS</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>17.9 Probador de CI 74XX</t>
-  </si>
-  <si>
-    <t>Acercar cristal</t>
   </si>
 </sst>
 </file>
@@ -907,7 +904,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,20 +989,16 @@
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="13"/>
       <c r="E3" s="23"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="13"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
       <c r="N3" s="12"/>
@@ -1038,16 +1031,16 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="13"/>
       <c r="E5" s="23"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="13"/>
       <c r="M5" s="23"/>
       <c r="N5" s="12"/>
@@ -1080,16 +1073,16 @@
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="13"/>
       <c r="E7" s="23"/>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="13"/>
       <c r="M7" s="23"/>
       <c r="N7" s="12"/>
@@ -1101,16 +1094,16 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="13"/>
       <c r="E8" s="23"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="13"/>
       <c r="M8" s="23"/>
       <c r="N8" s="12"/>
@@ -1122,16 +1115,16 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="13"/>
       <c r="E9" s="23"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="13"/>
       <c r="M9" s="23"/>
       <c r="N9" s="12"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E2464A-746D-4061-9EBB-8C59313F1F55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD076E-2F98-4AE1-86A1-B0BF98EA8D55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
   <si>
     <t>Design CCS</t>
   </si>
@@ -904,7 +904,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,16 +1010,16 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="13"/>
       <c r="E4" s="23"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
       <c r="N4" s="12"/>
@@ -1052,16 +1052,16 @@
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="13"/>
       <c r="E6" s="23"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="13"/>
       <c r="M6" s="23"/>
       <c r="N6" s="12"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD076E-2F98-4AE1-86A1-B0BF98EA8D55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16955EA0-1AA1-4E0C-B604-3C9713841664}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>Design CCS</t>
   </si>
@@ -904,7 +904,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:K6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,16 +1115,16 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="23"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="23"/>
       <c r="N9" s="12"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16955EA0-1AA1-4E0C-B604-3C9713841664}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E5E861-00F5-49CC-B20A-8303BDEE23DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -904,7 +904,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,16 +1115,16 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="13"/>
       <c r="E9" s="23"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="13"/>
       <c r="M9" s="23"/>
       <c r="N9" s="12"/>
@@ -1136,16 +1136,16 @@
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="13"/>
       <c r="E10" s="23"/>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="13"/>
       <c r="M10" s="23"/>
       <c r="N10" s="12"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E5E861-00F5-49CC-B20A-8303BDEE23DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB4F046-BFFC-4465-8620-E11FE39082A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Design CCS</t>
   </si>
@@ -82,18 +82,6 @@
     <t>1.4 Entrada digital puerto</t>
   </si>
   <si>
-    <t>1.5.1 PULL_DOWN - PULL_DOWN</t>
-  </si>
-  <si>
-    <t>1.5.2 PULL_DOWN - PULL_UP</t>
-  </si>
-  <si>
-    <t>1.5.3 PULL_UP - PULL_DOWN</t>
-  </si>
-  <si>
-    <t>1.5.4 PULL_UP - PULL_UP</t>
-  </si>
-  <si>
     <t>2.1 NOT</t>
   </si>
   <si>
@@ -302,6 +290,27 @@
   </si>
   <si>
     <t>17.9 Probador de CI 74XX</t>
+  </si>
+  <si>
+    <t>2.5 NAND</t>
+  </si>
+  <si>
+    <t>2.6 NOR</t>
+  </si>
+  <si>
+    <t>2.7 XNOR</t>
+  </si>
+  <si>
+    <t>1.5.1 ENTRADA PULL_DOWN - SALIDA PULL_DOWN</t>
+  </si>
+  <si>
+    <t>1.5.2 ENTRADA PULL_DOWN - SALIDA PULL_UP</t>
+  </si>
+  <si>
+    <t>1.5.3 ENTRADA PULL_UP - SALIDA PULL_DOWN</t>
+  </si>
+  <si>
+    <t>1.5.4 ENTRADA PULL_UP - SALIDA PULL_UP</t>
   </si>
 </sst>
 </file>
@@ -901,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1059,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -1071,7 +1080,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -1092,7 +1101,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -1113,7 +1122,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -1134,7 +1143,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
@@ -1155,7 +1164,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -1176,7 +1185,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -1197,7 +1206,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -1218,10 +1227,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
@@ -1239,18 +1248,18 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
       <c r="N15" s="12"/>
@@ -1260,18 +1269,18 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
       <c r="N16" s="12"/>
@@ -1281,7 +1290,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -1302,7 +1311,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -1323,7 +1332,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -1344,7 +1353,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -1365,20 +1374,20 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="23"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -1386,20 +1395,20 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="12"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="23"/>
+      <c r="M22" s="14"/>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -1407,20 +1416,20 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="23"/>
+      <c r="M23" s="14"/>
       <c r="N23" s="12"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -1428,7 +1437,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -1449,7 +1458,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -1470,7 +1479,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -1491,7 +1500,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -1512,20 +1521,20 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="14"/>
+      <c r="M28" s="23"/>
       <c r="N28" s="12"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
@@ -1533,20 +1542,20 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="12"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
@@ -1554,20 +1563,20 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="14"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="12"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
@@ -1575,7 +1584,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -1596,7 +1605,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -1617,20 +1626,20 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
       <c r="L33" s="13"/>
-      <c r="M33" s="23"/>
+      <c r="M33" s="14"/>
       <c r="N33" s="12"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
@@ -1638,20 +1647,20 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="23"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="12"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="13"/>
-      <c r="M34" s="23"/>
+      <c r="M34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
@@ -1659,7 +1668,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
@@ -1680,20 +1689,20 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="12"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="13"/>
-      <c r="M36" s="14"/>
+      <c r="M36" s="23"/>
       <c r="N36" s="12"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
@@ -1701,20 +1710,20 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
+      <c r="M37" s="23"/>
       <c r="N37" s="12"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
@@ -1722,7 +1731,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
@@ -1743,7 +1752,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
@@ -1764,7 +1773,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -1785,7 +1794,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
@@ -1806,7 +1815,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
@@ -1827,7 +1836,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
@@ -1848,7 +1857,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
@@ -1869,7 +1878,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -1890,7 +1899,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
@@ -1911,7 +1920,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
@@ -1932,7 +1941,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
@@ -1953,7 +1962,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
@@ -1974,7 +1983,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
@@ -1995,7 +2004,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
@@ -2016,7 +2025,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
@@ -2037,7 +2046,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
@@ -2058,7 +2067,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
@@ -2079,7 +2088,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
@@ -2100,7 +2109,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
@@ -2121,7 +2130,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
@@ -2142,7 +2151,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="13"/>
@@ -2163,7 +2172,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="13"/>
@@ -2184,7 +2193,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="13"/>
@@ -2205,7 +2214,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="13"/>
@@ -2226,7 +2235,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="13"/>
@@ -2247,7 +2256,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="13"/>
@@ -2268,7 +2277,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="13"/>
@@ -2289,7 +2298,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="13"/>
@@ -2310,7 +2319,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="13"/>
@@ -2331,7 +2340,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="13"/>
@@ -2352,7 +2361,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="13"/>
@@ -2373,7 +2382,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -2394,7 +2403,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2415,7 +2424,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
@@ -2436,7 +2445,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="13"/>
@@ -2457,7 +2466,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="13"/>
@@ -2478,7 +2487,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="13"/>
@@ -2499,7 +2508,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="13"/>
@@ -2520,7 +2529,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="13"/>
@@ -2541,7 +2550,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="13"/>
@@ -2562,7 +2571,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="13"/>
@@ -2583,7 +2592,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="13"/>
@@ -2602,26 +2611,89 @@
       <c r="P79" s="13"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="17"/>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="14"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="14"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB4F046-BFFC-4465-8620-E11FE39082A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0826BBEC-7E08-4F84-9B52-179AE53005DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,7 +913,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -1240,7 +1240,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="12"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -1253,7 +1253,7 @@
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1261,7 +1261,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -1274,7 +1274,7 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1282,7 +1282,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73014A83-FC06-4589-AA5E-7D666AF95B89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BC540B-2DD4-49DD-9E43-ACCD47286737}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,10 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,7 +1014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:O13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1081,18 +1083,18 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1102,16 +1104,16 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="22"/>
       <c r="J3" s="11"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="22"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="7"/>
     </row>
@@ -1123,16 +1125,16 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="22"/>
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="7"/>
     </row>
@@ -1144,16 +1146,16 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="22"/>
       <c r="J5" s="11"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="7"/>
     </row>
@@ -1165,9 +1167,9 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="22"/>
       <c r="J6" s="11"/>
       <c r="K6" s="12"/>
@@ -1186,9 +1188,9 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="22"/>
       <c r="J7" s="11"/>
       <c r="K7" s="12"/>
@@ -1207,9 +1209,9 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="22"/>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
@@ -1228,9 +1230,9 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="22"/>
       <c r="J9" s="11"/>
       <c r="K9" s="12"/>
@@ -1249,7 +1251,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="22"/>
@@ -1257,7 +1259,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="7"/>
@@ -1270,17 +1272,17 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="22"/>
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1291,17 +1293,17 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="22"/>
       <c r="J12" s="11"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="22"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1312,17 +1314,17 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="22"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="22"/>
       <c r="J13" s="11"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1333,9 +1335,9 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="22"/>
       <c r="J14" s="11"/>
       <c r="K14" s="6"/>
@@ -1354,9 +1356,9 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="22"/>
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
@@ -1375,9 +1377,9 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="22"/>
       <c r="J16" s="11"/>
       <c r="K16" s="12"/>
@@ -1551,9 +1553,9 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1572,9 +1574,9 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="22"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1593,9 +1595,9 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="22"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1614,9 +1616,9 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="22"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1635,9 +1637,9 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="22"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1656,9 +1658,9 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="22"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1677,9 +1679,9 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="22"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BC540B-2DD4-49DD-9E43-ACCD47286737}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E165BB6-80A3-48A3-8C9F-76ED71E8A70D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,18 +46,6 @@
     <t>Código Arduino</t>
   </si>
   <si>
-    <t>Blog CCS</t>
-  </si>
-  <si>
-    <t>Blog ArduPIC</t>
-  </si>
-  <si>
-    <t>Blog MSP430</t>
-  </si>
-  <si>
-    <t>Blog Arduino</t>
-  </si>
-  <si>
     <t>Video CCS</t>
   </si>
   <si>
@@ -311,6 +299,18 @@
   </si>
   <si>
     <t>1.5.4 ENTRADA PULL_UP - SALIDA PULL_UP</t>
+  </si>
+  <si>
+    <t>html Arduino</t>
+  </si>
+  <si>
+    <t>html CCS</t>
+  </si>
+  <si>
+    <t>html ArduPIC</t>
+  </si>
+  <si>
+    <t>html MSP430</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12:O13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,33 +1051,33 @@
         <v>6</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -1340,8 +1340,8 @@
       <c r="H14" s="12"/>
       <c r="I14" s="22"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="22"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -1392,49 +1392,49 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="22"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="22"/>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1476,15 +1476,15 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="22"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
@@ -1497,15 +1497,15 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="22"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -1539,19 +1539,19 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="22"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
@@ -1560,19 +1560,19 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="22"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
@@ -1581,19 +1581,19 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="22"/>
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
@@ -1602,15 +1602,15 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="22"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="22"/>
       <c r="J27" s="11"/>
       <c r="K27" s="12"/>
@@ -1623,15 +1623,15 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="22"/>
       <c r="J28" s="11"/>
       <c r="K28" s="12"/>
@@ -1644,15 +1644,15 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="22"/>
       <c r="J29" s="11"/>
       <c r="K29" s="12"/>
@@ -1665,15 +1665,15 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="22"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="22"/>
       <c r="J30" s="11"/>
       <c r="K30" s="12"/>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E165BB6-80A3-48A3-8C9F-76ED71E8A70D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED5FB90-F9EB-41EE-B0CE-F1CBC52494C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
   <si>
     <t>Design CCS</t>
   </si>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,9 +1490,9 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1511,9 +1511,9 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="22"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1612,9 +1612,9 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="22"/>
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
@@ -1633,9 +1633,9 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="22"/>
       <c r="N28" s="11"/>
       <c r="O28" s="12"/>
@@ -1654,9 +1654,9 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="22"/>
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED5FB90-F9EB-41EE-B0CE-F1CBC52494C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAEDB62-2377-4C99-9A42-5CE1AFCB4FA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Design CCS</t>
   </si>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,16 +1520,16 @@
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="6"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="6"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="6"/>
       <c r="M23" s="22"/>
       <c r="N23" s="5"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAEDB62-2377-4C99-9A42-5CE1AFCB4FA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62A95A1-0A50-484D-84C6-DB2468B75A65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,15 +1522,15 @@
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="22"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="22"/>
       <c r="J23" s="11"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="22"/>
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
@@ -1562,16 +1562,16 @@
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="6"/>
       <c r="E25" s="22"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="6"/>
       <c r="M25" s="22"/>
       <c r="N25" s="11"/>
@@ -1583,16 +1583,16 @@
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="6"/>
       <c r="E26" s="22"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="6"/>
       <c r="M26" s="22"/>
       <c r="N26" s="11"/>
@@ -1604,16 +1604,16 @@
       <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="6"/>
       <c r="E27" s="22"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="6"/>
       <c r="M27" s="22"/>
       <c r="N27" s="11"/>
@@ -1625,16 +1625,16 @@
       <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="6"/>
       <c r="E28" s="22"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="6"/>
       <c r="M28" s="22"/>
       <c r="N28" s="11"/>
@@ -1646,17 +1646,17 @@
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="22"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="22"/>
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62A95A1-0A50-484D-84C6-DB2468B75A65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404B6C4-92BC-43E4-8AF2-7C5CC7DA8A33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:K25"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,9 +1427,9 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1541,17 +1541,17 @@
       <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="22"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="22"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
@@ -1572,7 +1572,7 @@
       <c r="I25" s="22"/>
       <c r="J25" s="11"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="22"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="22"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
@@ -1593,7 +1593,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="11"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="22"/>
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="22"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
@@ -1614,7 +1614,7 @@
       <c r="I27" s="22"/>
       <c r="J27" s="11"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="12"/>
       <c r="M27" s="22"/>
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="22"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
@@ -1635,7 +1635,7 @@
       <c r="I28" s="22"/>
       <c r="J28" s="11"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="22"/>
       <c r="N28" s="11"/>
       <c r="O28" s="12"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404B6C4-92BC-43E4-8AF2-7C5CC7DA8A33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D996135-B58F-42FE-BCA6-C08C79CF7E93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
   <si>
     <t>Design CCS</t>
   </si>
@@ -705,8 +711,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -732,6 +736,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,7 +1021,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,8 +1031,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1035,10 +1041,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1050,7 +1056,7 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1059,10 +1065,10 @@
       <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>93</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1076,1722 +1082,1722 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="22"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="11"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="22"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="11"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="22"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="22"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="22"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="22"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="22"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="22"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="11"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="22"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="11"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="22"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="11"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="22"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="22"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="22"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="22"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="22"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="22"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="22"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="22"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="22"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="22"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="22"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="22"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="22"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="11"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="22"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="11"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="22"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="22"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="11"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="22"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="22"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="11"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="22"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="22"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="11"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="22"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="11"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="22"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="11"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="11"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="22"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="22"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="11"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-      <c r="M30" s="22"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="11"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="22"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="22"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="5"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="22"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="22"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="5"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="22"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="22"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="5"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="22"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="5"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="22"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="5"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="22"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="5"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="22"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="5"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="22"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="11"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="22"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="5"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="22"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="11"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="22"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="5"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="22"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="22"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="5"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="22"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="5"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="22"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="22"/>
+      <c r="I39" s="20"/>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="22"/>
+      <c r="M39" s="20"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="22"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="22"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="22"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="22"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="22"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="22"/>
+      <c r="M41" s="20"/>
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="22"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="22"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="22"/>
+      <c r="M42" s="20"/>
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="22"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="22"/>
+      <c r="I43" s="20"/>
       <c r="J43" s="5"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="22"/>
+      <c r="M43" s="20"/>
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="22"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="22"/>
+      <c r="I44" s="20"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="22"/>
+      <c r="M44" s="20"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="22"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="22"/>
+      <c r="I45" s="20"/>
       <c r="J45" s="5"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="22"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="22"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="22"/>
+      <c r="I46" s="20"/>
       <c r="J46" s="5"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="22"/>
+      <c r="M46" s="20"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="22"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="22"/>
+      <c r="I47" s="20"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="22"/>
+      <c r="M47" s="20"/>
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="22"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="22"/>
+      <c r="I48" s="20"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="22"/>
+      <c r="M48" s="20"/>
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="22"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="22"/>
+      <c r="I49" s="20"/>
       <c r="J49" s="5"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="22"/>
+      <c r="M49" s="20"/>
       <c r="N49" s="5"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="7"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="22"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="22"/>
+      <c r="I50" s="20"/>
       <c r="J50" s="5"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="22"/>
+      <c r="M50" s="20"/>
       <c r="N50" s="5"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="7"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="22"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="22"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="22"/>
+      <c r="M51" s="20"/>
       <c r="N51" s="5"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="22"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="22"/>
+      <c r="I52" s="20"/>
       <c r="J52" s="5"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="22"/>
+      <c r="M52" s="20"/>
       <c r="N52" s="5"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="22"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="22"/>
+      <c r="I53" s="20"/>
       <c r="J53" s="5"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="22"/>
+      <c r="M53" s="20"/>
       <c r="N53" s="5"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="22"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="22"/>
+      <c r="I54" s="20"/>
       <c r="J54" s="5"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="22"/>
+      <c r="M54" s="20"/>
       <c r="N54" s="5"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="22"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="22"/>
+      <c r="I55" s="20"/>
       <c r="J55" s="5"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="22"/>
+      <c r="M55" s="20"/>
       <c r="N55" s="5"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="22"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="22"/>
+      <c r="I56" s="20"/>
       <c r="J56" s="5"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="22"/>
+      <c r="M56" s="20"/>
       <c r="N56" s="5"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="22"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="22"/>
+      <c r="I57" s="20"/>
       <c r="J57" s="5"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="22"/>
+      <c r="M57" s="20"/>
       <c r="N57" s="5"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="22"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="22"/>
+      <c r="I58" s="20"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="22"/>
+      <c r="M58" s="20"/>
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="22"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="22"/>
+      <c r="I59" s="20"/>
       <c r="J59" s="5"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="22"/>
+      <c r="M59" s="20"/>
       <c r="N59" s="5"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="22"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="22"/>
+      <c r="I60" s="20"/>
       <c r="J60" s="5"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="22"/>
+      <c r="M60" s="20"/>
       <c r="N60" s="5"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="22"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="22"/>
+      <c r="I61" s="20"/>
       <c r="J61" s="5"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="22"/>
+      <c r="M61" s="20"/>
       <c r="N61" s="5"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="22"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="22"/>
+      <c r="I62" s="20"/>
       <c r="J62" s="5"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="22"/>
+      <c r="M62" s="20"/>
       <c r="N62" s="5"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="22"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="22"/>
+      <c r="I63" s="20"/>
       <c r="J63" s="5"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="22"/>
+      <c r="M63" s="20"/>
       <c r="N63" s="5"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="22"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="22"/>
+      <c r="I64" s="20"/>
       <c r="J64" s="5"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="22"/>
+      <c r="M64" s="20"/>
       <c r="N64" s="5"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="22"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="22"/>
+      <c r="I65" s="20"/>
       <c r="J65" s="5"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="22"/>
+      <c r="M65" s="20"/>
       <c r="N65" s="5"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="22"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="22"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="5"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="22"/>
+      <c r="M66" s="20"/>
       <c r="N66" s="5"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="22"/>
+      <c r="E67" s="20"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="22"/>
+      <c r="I67" s="20"/>
       <c r="J67" s="5"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="22"/>
+      <c r="M67" s="20"/>
       <c r="N67" s="5"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="22"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="22"/>
+      <c r="I68" s="20"/>
       <c r="J68" s="5"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="22"/>
+      <c r="M68" s="20"/>
       <c r="N68" s="5"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="22"/>
+      <c r="E69" s="20"/>
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="22"/>
+      <c r="I69" s="20"/>
       <c r="J69" s="5"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="22"/>
+      <c r="M69" s="20"/>
       <c r="N69" s="5"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="22"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="22"/>
+      <c r="I70" s="20"/>
       <c r="J70" s="5"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="22"/>
+      <c r="M70" s="20"/>
       <c r="N70" s="5"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="22"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="22"/>
+      <c r="I71" s="20"/>
       <c r="J71" s="5"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="22"/>
+      <c r="M71" s="20"/>
       <c r="N71" s="5"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="22"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="22"/>
+      <c r="I72" s="20"/>
       <c r="J72" s="5"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="22"/>
+      <c r="M72" s="20"/>
       <c r="N72" s="5"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="22"/>
+      <c r="E73" s="20"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="22"/>
+      <c r="I73" s="20"/>
       <c r="J73" s="5"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="22"/>
+      <c r="M73" s="20"/>
       <c r="N73" s="5"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="22"/>
+      <c r="E74" s="20"/>
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="22"/>
+      <c r="I74" s="20"/>
       <c r="J74" s="5"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="22"/>
+      <c r="M74" s="20"/>
       <c r="N74" s="5"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="22"/>
+      <c r="E75" s="20"/>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="22"/>
+      <c r="I75" s="20"/>
       <c r="J75" s="5"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="22"/>
+      <c r="M75" s="20"/>
       <c r="N75" s="5"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="22"/>
+      <c r="E76" s="20"/>
       <c r="F76" s="5"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="22"/>
+      <c r="I76" s="20"/>
       <c r="J76" s="5"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="22"/>
+      <c r="M76" s="20"/>
       <c r="N76" s="5"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="22"/>
+      <c r="E77" s="20"/>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="22"/>
+      <c r="I77" s="20"/>
       <c r="J77" s="5"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="22"/>
+      <c r="M77" s="20"/>
       <c r="N77" s="5"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="22"/>
+      <c r="E78" s="20"/>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
-      <c r="I78" s="22"/>
+      <c r="I78" s="20"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="22"/>
+      <c r="M78" s="20"/>
       <c r="N78" s="5"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="22"/>
+      <c r="E79" s="20"/>
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="22"/>
+      <c r="I79" s="20"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="22"/>
+      <c r="M79" s="20"/>
       <c r="N79" s="5"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="22"/>
+      <c r="E80" s="20"/>
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="22"/>
+      <c r="I80" s="20"/>
       <c r="J80" s="5"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="22"/>
+      <c r="M80" s="20"/>
       <c r="N80" s="5"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="22"/>
+      <c r="E81" s="20"/>
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="22"/>
+      <c r="I81" s="20"/>
       <c r="J81" s="5"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="22"/>
+      <c r="M81" s="20"/>
       <c r="N81" s="5"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="22"/>
+      <c r="E82" s="20"/>
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="22"/>
+      <c r="I82" s="20"/>
       <c r="J82" s="5"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="22"/>
+      <c r="M82" s="20"/>
       <c r="N82" s="5"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="23"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="8"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="23"/>
+      <c r="I83" s="21"/>
       <c r="J83" s="8"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="23"/>
+      <c r="M83" s="21"/>
       <c r="N83" s="8"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D996135-B58F-42FE-BCA6-C08C79CF7E93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAA3DB2-5BFD-4A8B-8C19-366A20ABE170}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Design CCS</t>
   </si>
@@ -711,6 +711,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -736,8 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,8 +1031,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1041,10 +1041,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1056,7 +1056,7 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1065,10 +1065,10 @@
       <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="19" t="s">
         <v>93</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1082,1722 +1082,1722 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="20"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="20"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="5"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="20"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="11"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="20"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="5"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="20"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="5"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="20"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="5"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="5"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="20"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="20"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="11"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="20"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="11"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="20"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="11"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="20"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="20"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="20"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="20"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="20"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="20"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="20"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="20"/>
+      <c r="M21" s="22"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="5"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="20"/>
+      <c r="M22" s="22"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="11"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="11"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="20"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="11"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="20"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="11"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="20"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="11"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="20"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="11"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="11"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="20"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="11"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="20"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="20"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="11"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-      <c r="M30" s="20"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="11"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="20"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="20"/>
+      <c r="M31" s="22"/>
       <c r="N31" s="5"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="20"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="20"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="5"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="20"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="20"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="20"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="5"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="20"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="5"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="20"/>
+      <c r="M34" s="22"/>
       <c r="N34" s="5"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="5"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="20"/>
+      <c r="M35" s="22"/>
       <c r="N35" s="5"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="20"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="11"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="20"/>
+      <c r="M36" s="22"/>
       <c r="N36" s="5"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="20"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="11"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="20"/>
+      <c r="M37" s="22"/>
       <c r="N37" s="5"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="5"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="22"/>
       <c r="N38" s="5"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="20"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="20"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="20"/>
+      <c r="M39" s="22"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="20"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="20"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="20"/>
+      <c r="M40" s="22"/>
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="20"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="20"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="20"/>
+      <c r="M41" s="22"/>
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="20"/>
+      <c r="E42" s="22"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="20"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="20"/>
+      <c r="M42" s="22"/>
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="5"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="20"/>
+      <c r="M43" s="22"/>
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="20"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="20"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="20"/>
+      <c r="M44" s="22"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="20"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="20"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="5"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="20"/>
+      <c r="M45" s="22"/>
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="20"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="20"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="5"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="20"/>
+      <c r="M46" s="22"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="20"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="20"/>
+      <c r="M47" s="22"/>
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="20"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="22"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="20"/>
+      <c r="M48" s="22"/>
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="20"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="20"/>
+      <c r="I49" s="22"/>
       <c r="J49" s="5"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="20"/>
+      <c r="M49" s="22"/>
       <c r="N49" s="5"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="7"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="20"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="22"/>
       <c r="J50" s="5"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="20"/>
+      <c r="M50" s="22"/>
       <c r="N50" s="5"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="7"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="20"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="20"/>
+      <c r="I51" s="22"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="20"/>
+      <c r="M51" s="22"/>
       <c r="N51" s="5"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="20"/>
+      <c r="E52" s="22"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="20"/>
+      <c r="I52" s="22"/>
       <c r="J52" s="5"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="20"/>
+      <c r="M52" s="22"/>
       <c r="N52" s="5"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="20"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="22"/>
       <c r="J53" s="5"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="20"/>
+      <c r="M53" s="22"/>
       <c r="N53" s="5"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="20"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="20"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="5"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="20"/>
+      <c r="M54" s="22"/>
       <c r="N54" s="5"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="20"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="20"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="5"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="20"/>
+      <c r="M55" s="22"/>
       <c r="N55" s="5"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="20"/>
+      <c r="E56" s="22"/>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="20"/>
+      <c r="I56" s="22"/>
       <c r="J56" s="5"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="20"/>
+      <c r="M56" s="22"/>
       <c r="N56" s="5"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="20"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="22"/>
       <c r="J57" s="5"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="20"/>
+      <c r="M57" s="22"/>
       <c r="N57" s="5"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="20"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="20"/>
+      <c r="I58" s="22"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="20"/>
+      <c r="M58" s="22"/>
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="20"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="20"/>
+      <c r="I59" s="22"/>
       <c r="J59" s="5"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="20"/>
+      <c r="M59" s="22"/>
       <c r="N59" s="5"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="20"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="20"/>
+      <c r="I60" s="22"/>
       <c r="J60" s="5"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="20"/>
+      <c r="M60" s="22"/>
       <c r="N60" s="5"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="20"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="20"/>
+      <c r="I61" s="22"/>
       <c r="J61" s="5"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="20"/>
+      <c r="M61" s="22"/>
       <c r="N61" s="5"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="20"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="20"/>
+      <c r="I62" s="22"/>
       <c r="J62" s="5"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="20"/>
+      <c r="M62" s="22"/>
       <c r="N62" s="5"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="20"/>
+      <c r="E63" s="22"/>
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="20"/>
+      <c r="I63" s="22"/>
       <c r="J63" s="5"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="20"/>
+      <c r="M63" s="22"/>
       <c r="N63" s="5"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="20"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="20"/>
+      <c r="I64" s="22"/>
       <c r="J64" s="5"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="20"/>
+      <c r="M64" s="22"/>
       <c r="N64" s="5"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="20"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="20"/>
+      <c r="I65" s="22"/>
       <c r="J65" s="5"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="20"/>
+      <c r="M65" s="22"/>
       <c r="N65" s="5"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="20"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="20"/>
+      <c r="I66" s="22"/>
       <c r="J66" s="5"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="20"/>
+      <c r="M66" s="22"/>
       <c r="N66" s="5"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="20"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="20"/>
+      <c r="I67" s="22"/>
       <c r="J67" s="5"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="20"/>
+      <c r="M67" s="22"/>
       <c r="N67" s="5"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="20"/>
+      <c r="I68" s="22"/>
       <c r="J68" s="5"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="20"/>
+      <c r="M68" s="22"/>
       <c r="N68" s="5"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="22"/>
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="20"/>
+      <c r="I69" s="22"/>
       <c r="J69" s="5"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="20"/>
+      <c r="M69" s="22"/>
       <c r="N69" s="5"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="20"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="20"/>
+      <c r="I70" s="22"/>
       <c r="J70" s="5"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="20"/>
+      <c r="M70" s="22"/>
       <c r="N70" s="5"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="20"/>
+      <c r="E71" s="22"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="20"/>
+      <c r="I71" s="22"/>
       <c r="J71" s="5"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="20"/>
+      <c r="M71" s="22"/>
       <c r="N71" s="5"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="20"/>
+      <c r="E72" s="22"/>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="20"/>
+      <c r="I72" s="22"/>
       <c r="J72" s="5"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="20"/>
+      <c r="M72" s="22"/>
       <c r="N72" s="5"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="20"/>
+      <c r="E73" s="22"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="20"/>
+      <c r="I73" s="22"/>
       <c r="J73" s="5"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="20"/>
+      <c r="M73" s="22"/>
       <c r="N73" s="5"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="20"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="20"/>
+      <c r="I74" s="22"/>
       <c r="J74" s="5"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="20"/>
+      <c r="M74" s="22"/>
       <c r="N74" s="5"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="20"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="20"/>
+      <c r="I75" s="22"/>
       <c r="J75" s="5"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="20"/>
+      <c r="M75" s="22"/>
       <c r="N75" s="5"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="20"/>
+      <c r="E76" s="22"/>
       <c r="F76" s="5"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="20"/>
+      <c r="I76" s="22"/>
       <c r="J76" s="5"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="20"/>
+      <c r="M76" s="22"/>
       <c r="N76" s="5"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="20"/>
+      <c r="E77" s="22"/>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="20"/>
+      <c r="I77" s="22"/>
       <c r="J77" s="5"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="20"/>
+      <c r="M77" s="22"/>
       <c r="N77" s="5"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="20"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
-      <c r="I78" s="20"/>
+      <c r="I78" s="22"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="20"/>
+      <c r="M78" s="22"/>
       <c r="N78" s="5"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="20"/>
+      <c r="E79" s="22"/>
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="20"/>
+      <c r="I79" s="22"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="20"/>
+      <c r="M79" s="22"/>
       <c r="N79" s="5"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="20"/>
+      <c r="E80" s="22"/>
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="20"/>
+      <c r="I80" s="22"/>
       <c r="J80" s="5"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="20"/>
+      <c r="M80" s="22"/>
       <c r="N80" s="5"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="20"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="20"/>
+      <c r="I81" s="22"/>
       <c r="J81" s="5"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="20"/>
+      <c r="M81" s="22"/>
       <c r="N81" s="5"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="20"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="20"/>
+      <c r="I82" s="22"/>
       <c r="J82" s="5"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="20"/>
+      <c r="M82" s="22"/>
       <c r="N82" s="5"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="21"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="8"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="21"/>
+      <c r="I83" s="23"/>
       <c r="J83" s="8"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="21"/>
+      <c r="M83" s="23"/>
       <c r="N83" s="8"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAA3DB2-5BFD-4A8B-8C19-366A20ABE170}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024FCC23-83AE-493E-B496-5EE09BE769B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,7 +1021,8 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1107,7 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="22"/>
@@ -1114,7 +1115,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="22"/>
@@ -1212,8 +1213,8 @@
         <v>91</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="22"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
@@ -1233,8 +1234,8 @@
         <v>92</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
@@ -1253,9 +1254,9 @@
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="22"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
@@ -1274,9 +1275,9 @@
       <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -1295,9 +1296,9 @@
       <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="22"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
@@ -1316,9 +1317,9 @@
       <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="22"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
@@ -1337,9 +1338,9 @@
       <c r="A14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
@@ -1358,9 +1359,9 @@
       <c r="A15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="22"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
@@ -1379,9 +1380,9 @@
       <c r="A16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="22"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
@@ -1401,12 +1402,12 @@
         <v>20</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="22"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
@@ -1422,12 +1423,12 @@
         <v>21</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="22"/>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
@@ -1485,8 +1486,8 @@
         <v>24</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="22"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
@@ -1514,8 +1515,8 @@
       <c r="H22" s="12"/>
       <c r="I22" s="22"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="22"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
@@ -1526,7 +1527,7 @@
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="22"/>
@@ -1534,9 +1535,9 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="22"/>
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
@@ -1547,7 +1548,7 @@
       <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
@@ -1555,9 +1556,9 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="22"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
@@ -1568,7 +1569,7 @@
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="22"/>
@@ -1576,9 +1577,9 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="22"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
@@ -1589,7 +1590,7 @@
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="22"/>
@@ -1597,9 +1598,9 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="22"/>
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
@@ -1610,7 +1611,7 @@
       <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="22"/>
@@ -1618,9 +1619,9 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="22"/>
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
@@ -1631,7 +1632,7 @@
       <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="22"/>
@@ -1639,9 +1640,9 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="22"/>
       <c r="N28" s="11"/>
       <c r="O28" s="12"/>
@@ -1652,7 +1653,7 @@
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="22"/>
@@ -1660,9 +1661,9 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="22"/>
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>
@@ -1673,7 +1674,7 @@
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="22"/>
@@ -1681,9 +1682,9 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="22"/>
       <c r="N30" s="11"/>
       <c r="O30" s="12"/>
@@ -1864,7 +1865,7 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="22"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
@@ -1885,7 +1886,7 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="22"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
@@ -1906,7 +1907,7 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="22"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
@@ -1927,7 +1928,7 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="22"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
@@ -1948,7 +1949,7 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="22"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
@@ -1969,7 +1970,7 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
@@ -1990,7 +1991,7 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="22"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
@@ -2011,7 +2012,7 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
@@ -2032,7 +2033,7 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="22"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
@@ -2053,7 +2054,7 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="22"/>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
@@ -2074,7 +2075,7 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="22"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
@@ -2095,7 +2096,7 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="22"/>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
@@ -2200,7 +2201,7 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="22"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
@@ -2221,7 +2222,7 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="22"/>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
@@ -2242,7 +2243,7 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="22"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024FCC23-83AE-493E-B496-5EE09BE769B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91499DFB-DE87-4400-832E-A22C07655B6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,6 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,7 +1023,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1092,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="21"/>
       <c r="F2" s="27"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="24"/>
       <c r="I2" s="26"/>
       <c r="J2" s="13"/>
@@ -1112,7 +1113,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="22"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="12"/>
       <c r="I3" s="22"/>
       <c r="J3" s="11"/>
@@ -1133,7 +1134,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="22"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="12"/>
       <c r="I4" s="22"/>
       <c r="J4" s="5"/>
@@ -1154,7 +1155,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="12"/>
       <c r="I5" s="22"/>
       <c r="J5" s="5"/>
@@ -1175,7 +1176,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="12"/>
       <c r="I6" s="22"/>
       <c r="J6" s="5"/>
@@ -1196,7 +1197,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="22"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="12"/>
       <c r="I7" s="22"/>
       <c r="J7" s="5"/>
@@ -1217,7 +1218,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="22"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="12"/>
       <c r="I8" s="22"/>
       <c r="J8" s="5"/>
@@ -1238,7 +1239,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="12"/>
       <c r="I9" s="22"/>
       <c r="J9" s="5"/>
@@ -1259,8 +1260,8 @@
       <c r="D10" s="12"/>
       <c r="E10" s="22"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="22"/>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
@@ -1280,8 +1281,8 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="22"/>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
@@ -1301,8 +1302,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="22"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="22"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
@@ -1322,8 +1323,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="22"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="22"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
@@ -1343,8 +1344,8 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="22"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
@@ -1364,8 +1365,8 @@
       <c r="D15" s="12"/>
       <c r="E15" s="22"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="22"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
@@ -1385,8 +1386,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="22"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="22"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
@@ -1406,8 +1407,8 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="22"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
@@ -1427,8 +1428,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="22"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="22"/>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
@@ -1490,8 +1491,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="22"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="22"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
@@ -1511,8 +1512,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="22"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="22"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
@@ -1532,8 +1533,8 @@
       <c r="D23" s="12"/>
       <c r="E23" s="22"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="22"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
@@ -1553,8 +1554,8 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="22"/>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
@@ -1574,8 +1575,8 @@
       <c r="D25" s="12"/>
       <c r="E25" s="22"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="22"/>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
@@ -1595,8 +1596,8 @@
       <c r="D26" s="12"/>
       <c r="E26" s="22"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="22"/>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
@@ -1616,8 +1617,8 @@
       <c r="D27" s="12"/>
       <c r="E27" s="22"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="22"/>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
@@ -1637,8 +1638,8 @@
       <c r="D28" s="12"/>
       <c r="E28" s="22"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="22"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
@@ -1658,8 +1659,8 @@
       <c r="D29" s="12"/>
       <c r="E29" s="22"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="22"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
@@ -1679,8 +1680,8 @@
       <c r="D30" s="12"/>
       <c r="E30" s="22"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="22"/>
       <c r="J30" s="5"/>
       <c r="K30" s="6"/>
@@ -1700,8 +1701,8 @@
       <c r="D31" s="12"/>
       <c r="E31" s="22"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="22"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6"/>
@@ -1721,8 +1722,8 @@
       <c r="D32" s="12"/>
       <c r="E32" s="22"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="22"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
@@ -1742,8 +1743,8 @@
       <c r="D33" s="12"/>
       <c r="E33" s="22"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="22"/>
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
@@ -1763,8 +1764,8 @@
       <c r="D34" s="12"/>
       <c r="E34" s="22"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="22"/>
       <c r="J34" s="5"/>
       <c r="K34" s="6"/>
@@ -1784,8 +1785,8 @@
       <c r="D35" s="12"/>
       <c r="E35" s="22"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="22"/>
       <c r="J35" s="5"/>
       <c r="K35" s="6"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91499DFB-DE87-4400-832E-A22C07655B6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43091A9-C3EC-48E1-B8C6-1A35AB6A204C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,7 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,7 +1022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6:H9"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1091,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="21"/>
       <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="26"/>
       <c r="J2" s="13"/>
@@ -1113,12 +1112,12 @@
       <c r="D3" s="12"/>
       <c r="E3" s="22"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="22"/>
       <c r="N3" s="11"/>
       <c r="O3" s="12"/>
@@ -1134,7 +1133,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="22"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="22"/>
       <c r="J4" s="5"/>
@@ -1155,7 +1154,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="22"/>
       <c r="J5" s="5"/>
@@ -1176,7 +1175,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="22"/>
       <c r="J6" s="5"/>
@@ -1197,7 +1196,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="22"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="22"/>
       <c r="J7" s="5"/>
@@ -1218,7 +1217,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="22"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="22"/>
       <c r="J8" s="5"/>
@@ -1239,7 +1238,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="22"/>
       <c r="J9" s="5"/>
@@ -1261,7 +1260,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="11"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="22"/>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
@@ -1282,7 +1281,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="11"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="22"/>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
@@ -1303,7 +1302,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="11"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="22"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
@@ -1324,7 +1323,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="11"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="22"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
@@ -1344,8 +1343,8 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="22"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
@@ -1365,8 +1364,8 @@
       <c r="D15" s="12"/>
       <c r="E15" s="22"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="22"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
@@ -1386,8 +1385,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="22"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="22"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43091A9-C3EC-48E1-B8C6-1A35AB6A204C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E619E-8CE5-416E-8E18-F3534D3FE796}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Design CCS</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>8.1 Contador 0-99 Display 7Seg</t>
-  </si>
-  <si>
-    <t>9. Entradas análogas</t>
   </si>
   <si>
     <t>9.1 Lectura convertidor Análogo_Digital</t>
@@ -1018,11 +1015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,16 +1067,16 @@
         <v>10</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1168,7 +1165,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="12"/>
@@ -1189,7 +1186,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="12"/>
@@ -1210,7 +1207,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="12"/>
@@ -1231,7 +1228,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="12"/>
@@ -1259,7 +1256,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="22"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="22"/>
       <c r="J10" s="5"/>
@@ -1280,7 +1277,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="22"/>
       <c r="J11" s="5"/>
@@ -1301,7 +1298,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="22"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="22"/>
       <c r="J12" s="5"/>
@@ -1322,7 +1319,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="22"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="22"/>
       <c r="J13" s="5"/>
@@ -1336,7 +1333,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1378,7 +1375,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -1951,9 +1948,9 @@
       <c r="C43" s="6"/>
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="12"/>
       <c r="I43" s="22"/>
       <c r="J43" s="5"/>
       <c r="K43" s="6"/>
@@ -1972,7 +1969,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="22"/>
@@ -1993,7 +1990,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="12"/>
       <c r="E45" s="22"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="22"/>
@@ -2092,11 +2089,11 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="22"/>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
@@ -2113,7 +2110,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -2176,11 +2173,11 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="22"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
@@ -2243,7 +2240,7 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="12"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="22"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
@@ -2762,47 +2759,26 @@
       <c r="P81" s="6"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="7"/>
-    </row>
-    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="10"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E619E-8CE5-416E-8E18-F3534D3FE796}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E41017-F7EF-4DA8-AEB5-D0145EF4D648}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,8 +1018,8 @@
   <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,9 +1112,9 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="22"/>
       <c r="N3" s="11"/>
       <c r="O3" s="12"/>
@@ -1801,7 +1801,7 @@
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="22"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="22"/>
@@ -1822,7 +1822,7 @@
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="22"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="22"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E41017-F7EF-4DA8-AEB5-D0145EF4D648}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF045FC-EDCD-494A-8749-69C5C1247778}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="97">
   <si>
     <t>Design CCS</t>
   </si>
@@ -136,15 +136,6 @@
     <t>4.1.2 Contador 0 - 99 sin decodificador</t>
   </si>
   <si>
-    <t>4.1.3 Contador 0 - 99 multiplexado sin decodificador</t>
-  </si>
-  <si>
-    <t>4.1.4 Contador 0 - 9 con decodificador</t>
-  </si>
-  <si>
-    <t>4.1.5 Contador 0 - 99 con decodificador</t>
-  </si>
-  <si>
     <t>4.2.1 Driver LCD2x16 y LCD4x20</t>
   </si>
   <si>
@@ -314,6 +305,18 @@
   </si>
   <si>
     <t>html MSP430</t>
+  </si>
+  <si>
+    <t>4.1.3 Contador 0 - 9 con decodificador</t>
+  </si>
+  <si>
+    <t>4.1.4 Contador 0 - 99 con decodificador</t>
+  </si>
+  <si>
+    <t>4.1.6 Contador 0 - 999 multiplexado</t>
+  </si>
+  <si>
+    <t>4.1.5 Contador 0 - 99 multiplexado</t>
   </si>
 </sst>
 </file>
@@ -1015,11 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,16 +1070,16 @@
         <v>10</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1165,7 +1168,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="12"/>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="12"/>
@@ -1207,7 +1210,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="12"/>
@@ -1228,7 +1231,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="12"/>
@@ -1333,7 +1336,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1375,7 +1378,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -1403,8 +1406,8 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="22"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
@@ -1424,16 +1427,16 @@
       <c r="D18" s="12"/>
       <c r="E18" s="22"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="22"/>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1487,8 +1490,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="22"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="22"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
@@ -1508,8 +1511,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="22"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="22"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
@@ -1529,8 +1532,8 @@
       <c r="D23" s="12"/>
       <c r="E23" s="22"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="22"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
@@ -1550,8 +1553,8 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="22"/>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
@@ -1571,8 +1574,8 @@
       <c r="D25" s="12"/>
       <c r="E25" s="22"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="22"/>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
@@ -1592,8 +1595,8 @@
       <c r="D26" s="12"/>
       <c r="E26" s="22"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="22"/>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
@@ -1614,7 +1617,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="11"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="22"/>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
@@ -1635,7 +1638,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="11"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="22"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
@@ -1655,8 +1658,8 @@
       <c r="D29" s="12"/>
       <c r="E29" s="22"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="22"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
@@ -1676,8 +1679,8 @@
       <c r="D30" s="12"/>
       <c r="E30" s="22"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="22"/>
       <c r="J30" s="5"/>
       <c r="K30" s="6"/>
@@ -1698,7 +1701,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="11"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="22"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6"/>
@@ -1719,7 +1722,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="11"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="22"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
@@ -1732,7 +1735,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="12"/>
@@ -1753,7 +1756,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="12"/>
@@ -1774,7 +1777,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="12"/>
@@ -1795,19 +1798,19 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="22"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="22"/>
       <c r="N36" s="5"/>
       <c r="O36" s="6"/>
@@ -1816,7 +1819,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
@@ -1826,7 +1829,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="22"/>
-      <c r="J37" s="11"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="22"/>
@@ -1837,19 +1840,19 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="22"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="22"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="22"/>
       <c r="N38" s="5"/>
       <c r="O38" s="6"/>
@@ -1858,11 +1861,11 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="22"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -1900,7 +1903,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -1942,15 +1945,15 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="12"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="22"/>
       <c r="J43" s="5"/>
       <c r="K43" s="6"/>
@@ -1963,7 +1966,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
@@ -1971,7 +1974,7 @@
       <c r="E44" s="22"/>
       <c r="F44" s="11"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="22"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
@@ -1984,7 +1987,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -2005,13 +2008,13 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
-      <c r="F46" s="5"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="22"/>
@@ -2026,7 +2029,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
@@ -2089,11 +2092,11 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="22"/>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
@@ -2110,7 +2113,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -2152,7 +2155,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -2173,11 +2176,11 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="22"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -2215,7 +2218,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -2236,11 +2239,11 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="22"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
@@ -2257,7 +2260,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -2320,7 +2323,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -2341,7 +2344,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -2362,7 +2365,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -2383,7 +2386,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -2425,7 +2428,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -2446,7 +2449,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -2467,7 +2470,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -2488,7 +2491,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -2509,7 +2512,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2551,7 +2554,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -2572,7 +2575,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -2656,7 +2659,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -2677,7 +2680,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -2698,7 +2701,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2740,7 +2743,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2759,26 +2762,47 @@
       <c r="P81" s="6"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="10"/>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="7"/>
+    </row>
+    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF045FC-EDCD-494A-8749-69C5C1247778}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8C572-F294-406F-9B2E-505B20FB909D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Design CCS</t>
   </si>
@@ -1021,8 +1021,8 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,16 +1700,16 @@
       <c r="D31" s="12"/>
       <c r="E31" s="22"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="22"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -1721,16 +1721,16 @@
       <c r="D32" s="12"/>
       <c r="E32" s="22"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="22"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="22"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -1742,16 +1742,16 @@
       <c r="D33" s="12"/>
       <c r="E33" s="22"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="22"/>
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="22"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -1763,16 +1763,16 @@
       <c r="D34" s="12"/>
       <c r="E34" s="22"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="22"/>
       <c r="J34" s="5"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="22"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -1784,16 +1784,16 @@
       <c r="D35" s="12"/>
       <c r="E35" s="22"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="22"/>
       <c r="J35" s="5"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="22"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -1812,9 +1812,9 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="22"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8C572-F294-406F-9B2E-505B20FB909D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82250FE-F873-4CE0-BD08-4673FF772A84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,7 +18,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="103">
   <si>
     <t>Design CCS</t>
   </si>
@@ -317,6 +316,24 @@
   </si>
   <si>
     <t>4.1.5 Contador 0 - 99 multiplexado</t>
+  </si>
+  <si>
+    <t>0 a 1023</t>
+  </si>
+  <si>
+    <t>0 a 100</t>
+  </si>
+  <si>
+    <t>20 a 80</t>
+  </si>
+  <si>
+    <t>_-50 a 150</t>
+  </si>
+  <si>
+    <t>0.0 a 100.0</t>
+  </si>
+  <si>
+    <t>quitqr txt2stream</t>
   </si>
 </sst>
 </file>
@@ -340,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +376,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -689,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,6 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,11 +1042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,9 +1563,9 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1616,7 +1640,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="22"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="22"/>
       <c r="J27" s="5"/>
@@ -1637,7 +1661,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="22"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="22"/>
       <c r="J28" s="5"/>
@@ -1804,8 +1828,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="22"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="22"/>
       <c r="J36" s="5"/>
@@ -2008,13 +2032,13 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="22"/>
-      <c r="F46" s="11"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="22"/>
@@ -2029,13 +2053,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="22"/>
-      <c r="F47" s="5"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="22"/>
@@ -2050,13 +2074,13 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="22"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="22"/>
@@ -2071,13 +2095,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="22"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="22"/>
@@ -2092,13 +2116,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="22"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="22"/>
@@ -2113,13 +2137,15 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="22"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="22"/>
@@ -2134,11 +2160,11 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="22"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
@@ -2155,11 +2181,11 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="22"/>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
@@ -2176,11 +2202,11 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="22"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
@@ -2197,7 +2223,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -2218,11 +2244,11 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="22"/>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
@@ -2239,11 +2265,11 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="12"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="22"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
@@ -2260,7 +2286,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -2281,7 +2307,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -2302,11 +2328,11 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="22"/>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
@@ -2323,11 +2349,11 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="22"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
@@ -2344,11 +2370,11 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="12"/>
       <c r="E62" s="22"/>
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
@@ -2365,7 +2391,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -2386,7 +2412,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -2407,7 +2433,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -2428,7 +2454,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -2449,7 +2475,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -2470,7 +2496,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -2491,7 +2517,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -2512,7 +2538,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -2533,7 +2559,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2554,7 +2580,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -2575,7 +2601,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -2596,7 +2622,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -2617,7 +2643,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -2638,7 +2664,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -2659,7 +2685,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -2680,7 +2706,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -2701,7 +2727,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -2722,7 +2748,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2743,7 +2769,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2764,7 +2790,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -2783,26 +2809,131 @@
       <c r="P82" s="6"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="7"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="7"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="7"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="7"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="7"/>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="10"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82250FE-F873-4CE0-BD08-4673FF772A84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DCF35E-94CC-4000-AF84-3A50D6FE5265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>Design CCS</t>
   </si>
@@ -333,7 +333,7 @@
     <t>0.0 a 100.0</t>
   </si>
   <si>
-    <t>quitqr txt2stream</t>
+    <t>No funcioa simulación</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,8 +1045,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,8 +1850,10 @@
       <c r="D37" s="12"/>
       <c r="E37" s="22"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="I37" s="22"/>
       <c r="J37" s="5"/>
       <c r="K37" s="12"/>
@@ -1871,8 +1873,10 @@
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="I38" s="22"/>
       <c r="J38" s="5"/>
       <c r="K38" s="12"/>
@@ -1997,7 +2001,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="6"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="22"/>
       <c r="J44" s="5"/>
@@ -2011,15 +2015,15 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="12"/>
       <c r="E45" s="22"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
       <c r="I45" s="22"/>
       <c r="J45" s="5"/>
       <c r="K45" s="6"/>
@@ -2032,15 +2036,15 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="22"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
       <c r="I46" s="22"/>
       <c r="J46" s="5"/>
       <c r="K46" s="6"/>
@@ -2059,9 +2063,9 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="22"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="22"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6"/>
@@ -2080,9 +2084,9 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="22"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="22"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
@@ -2101,9 +2105,9 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="22"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
       <c r="I49" s="22"/>
       <c r="J49" s="5"/>
       <c r="K49" s="6"/>
@@ -2122,9 +2126,9 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="22"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
       <c r="I50" s="22"/>
       <c r="J50" s="5"/>
       <c r="K50" s="6"/>
@@ -2143,11 +2147,9 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="22"/>
-      <c r="F51" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
       <c r="I51" s="22"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DCF35E-94CC-4000-AF84-3A50D6FE5265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6EC227-8262-4C45-8C9C-BE028AC5E754}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Design CCS</t>
   </si>
@@ -331,9 +332,6 @@
   </si>
   <si>
     <t>0.0 a 100.0</t>
-  </si>
-  <si>
-    <t>No funcioa simulación</t>
   </si>
 </sst>
 </file>
@@ -357,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,12 +374,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -712,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,7 +753,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,8 +1036,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,9 +1842,7 @@
       <c r="E37" s="22"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="H37" s="12"/>
       <c r="I37" s="22"/>
       <c r="J37" s="5"/>
       <c r="K37" s="12"/>
@@ -1874,9 +1863,7 @@
       <c r="E38" s="22"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="H38" s="12"/>
       <c r="I38" s="22"/>
       <c r="J38" s="5"/>
       <c r="K38" s="12"/>
@@ -2336,9 +2323,9 @@
       <c r="C60" s="6"/>
       <c r="D60" s="12"/>
       <c r="E60" s="22"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
       <c r="I60" s="22"/>
       <c r="J60" s="5"/>
       <c r="K60" s="6"/>
@@ -2357,9 +2344,9 @@
       <c r="C61" s="6"/>
       <c r="D61" s="12"/>
       <c r="E61" s="22"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
       <c r="I61" s="22"/>
       <c r="J61" s="5"/>
       <c r="K61" s="6"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6EC227-8262-4C45-8C9C-BE028AC5E754}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090E964D-8978-4947-A98F-07A023D09113}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090E964D-8978-4947-A98F-07A023D09113}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9733E267-61EB-4417-808F-A76BB41E5AD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,8 +1036,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,7 +2407,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="22"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="22"/>
@@ -2428,7 +2428,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="22"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="11"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="22"/>
@@ -2701,7 +2701,7 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="22"/>
-      <c r="F78" s="5"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="22"/>
@@ -2722,7 +2722,7 @@
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="22"/>
-      <c r="F79" s="5"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="22"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9733E267-61EB-4417-808F-A76BB41E5AD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED01A124-3B76-4FFF-AD04-E39AACAE870A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,8 +1036,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2449,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="22"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="22"/>
@@ -2512,7 +2512,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="22"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="22"/>
@@ -2743,7 +2743,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="22"/>
-      <c r="F80" s="5"/>
+      <c r="F80" s="11"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="22"/>
@@ -2806,7 +2806,7 @@
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="22"/>
-      <c r="F83" s="5"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="22"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED01A124-3B76-4FFF-AD04-E39AACAE870A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF13D6-082D-4FE5-8FC6-2529E8F58C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -355,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +373,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -704,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,6 +758,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,8 +1043,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,9 +1868,9 @@
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="22"/>
       <c r="J38" s="5"/>
       <c r="K38" s="12"/>
@@ -1926,7 +1933,7 @@
       <c r="E41" s="22"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="12"/>
       <c r="I41" s="22"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
@@ -1947,7 +1954,7 @@
       <c r="E42" s="22"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="22"/>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
@@ -2409,7 +2416,7 @@
       <c r="E64" s="22"/>
       <c r="F64" s="11"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="H64" s="12"/>
       <c r="I64" s="22"/>
       <c r="J64" s="5"/>
       <c r="K64" s="6"/>
@@ -2430,7 +2437,7 @@
       <c r="E65" s="22"/>
       <c r="F65" s="11"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="H65" s="12"/>
       <c r="I65" s="22"/>
       <c r="J65" s="5"/>
       <c r="K65" s="6"/>
@@ -2449,7 +2456,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="22"/>
-      <c r="F66" s="11"/>
+      <c r="F66" s="28"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="22"/>
@@ -2491,7 +2498,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="22"/>
-      <c r="F68" s="5"/>
+      <c r="F68" s="28"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="22"/>
@@ -2512,7 +2519,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="22"/>
-      <c r="F69" s="11"/>
+      <c r="F69" s="28"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="22"/>
@@ -2703,7 +2710,7 @@
       <c r="E78" s="22"/>
       <c r="F78" s="11"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="22"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6"/>
@@ -2724,7 +2731,7 @@
       <c r="E79" s="22"/>
       <c r="F79" s="11"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="H79" s="12"/>
       <c r="I79" s="22"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6"/>
@@ -2743,7 +2750,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="22"/>
-      <c r="F80" s="11"/>
+      <c r="F80" s="28"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="22"/>
@@ -2785,7 +2792,7 @@
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="22"/>
-      <c r="F82" s="5"/>
+      <c r="F82" s="28"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="22"/>
@@ -2806,7 +2813,7 @@
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="22"/>
-      <c r="F83" s="11"/>
+      <c r="F83" s="28"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="22"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF13D6-082D-4FE5-8FC6-2529E8F58C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56EA0C-7139-4924-A512-10FA26547EE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,7 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,8 +1042,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,9 +1867,9 @@
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="22"/>
       <c r="J38" s="5"/>
       <c r="K38" s="12"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56EA0C-7139-4924-A512-10FA26547EE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E1557-96AA-4B89-A5C1-ED07403D6024}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,8 +1042,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2455,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="22"/>
-      <c r="F66" s="28"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="22"/>
@@ -2749,7 +2749,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="22"/>
-      <c r="F80" s="28"/>
+      <c r="F80" s="11"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="22"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E1557-96AA-4B89-A5C1-ED07403D6024}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC45FF23-E03A-48FE-8F23-E863EBB73D87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,8 +1042,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,7 +2414,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="22"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="6"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="22"/>
       <c r="J64" s="5"/>
@@ -2435,7 +2435,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="22"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="22"/>
       <c r="J65" s="5"/>
@@ -2476,7 +2476,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="22"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="22"/>
@@ -2708,7 +2708,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="22"/>
       <c r="F78" s="11"/>
-      <c r="G78" s="6"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="22"/>
       <c r="J78" s="5"/>
@@ -2729,7 +2729,7 @@
       <c r="D79" s="6"/>
       <c r="E79" s="22"/>
       <c r="F79" s="11"/>
-      <c r="G79" s="6"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="22"/>
       <c r="J79" s="5"/>
@@ -2770,7 +2770,7 @@
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="22"/>
-      <c r="F81" s="5"/>
+      <c r="F81" s="11"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="22"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC45FF23-E03A-48FE-8F23-E863EBB73D87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFCF7C9-7454-4993-9472-150E23F4CB5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>Design CCS</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>0.0 a 100.0</t>
+  </si>
+  <si>
+    <t>$ al principio C#</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,7 +2479,9 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="22"/>
-      <c r="F67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="22"/>
@@ -2770,7 +2775,9 @@
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="22"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="22"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFCF7C9-7454-4993-9472-150E23F4CB5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76858EE8-BCFC-4E36-858B-DFFBC28C6F7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Design CCS</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>0.0 a 100.0</t>
-  </si>
-  <si>
-    <t>$ al principio C#</t>
   </si>
 </sst>
 </file>
@@ -712,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,6 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,8 +1043,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,8 +1995,8 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="22"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
@@ -2018,8 +2016,8 @@
       <c r="D45" s="12"/>
       <c r="E45" s="22"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="22"/>
       <c r="J45" s="5"/>
       <c r="K45" s="6"/>
@@ -2039,8 +2037,8 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="22"/>
       <c r="J46" s="5"/>
       <c r="K46" s="6"/>
@@ -2060,8 +2058,8 @@
       <c r="D47" s="6"/>
       <c r="E47" s="22"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="22"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6"/>
@@ -2081,8 +2079,8 @@
       <c r="D48" s="6"/>
       <c r="E48" s="22"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="22"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
@@ -2102,8 +2100,8 @@
       <c r="D49" s="6"/>
       <c r="E49" s="22"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="22"/>
       <c r="J49" s="5"/>
       <c r="K49" s="6"/>
@@ -2123,8 +2121,8 @@
       <c r="D50" s="6"/>
       <c r="E50" s="22"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="22"/>
       <c r="J50" s="5"/>
       <c r="K50" s="6"/>
@@ -2144,8 +2142,8 @@
       <c r="D51" s="6"/>
       <c r="E51" s="22"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="22"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6"/>
@@ -2459,8 +2457,8 @@
       <c r="D66" s="6"/>
       <c r="E66" s="22"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
       <c r="I66" s="22"/>
       <c r="J66" s="5"/>
       <c r="K66" s="6"/>
@@ -2479,9 +2477,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="22"/>
-      <c r="F67" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="F67" s="11"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="22"/>
@@ -2755,8 +2751,8 @@
       <c r="D80" s="6"/>
       <c r="E80" s="22"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
       <c r="I80" s="22"/>
       <c r="J80" s="5"/>
       <c r="K80" s="6"/>
@@ -2775,9 +2771,7 @@
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="22"/>
-      <c r="F81" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="F81" s="11"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="22"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76858EE8-BCFC-4E36-858B-DFFBC28C6F7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC83FC-E586-462C-8EA9-DE7EB0823D5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="103">
   <si>
     <t>Design CCS</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>0.0 a 100.0</t>
+  </si>
+  <si>
+    <t>100,0 / 1023,0</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1046,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,8 +1998,8 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="22"/>
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
@@ -2016,8 +2019,8 @@
       <c r="D45" s="12"/>
       <c r="E45" s="22"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
       <c r="I45" s="22"/>
       <c r="J45" s="5"/>
       <c r="K45" s="6"/>
@@ -2037,8 +2040,8 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
       <c r="I46" s="22"/>
       <c r="J46" s="5"/>
       <c r="K46" s="6"/>
@@ -2058,8 +2061,8 @@
       <c r="D47" s="6"/>
       <c r="E47" s="22"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="22"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6"/>
@@ -2079,8 +2082,8 @@
       <c r="D48" s="6"/>
       <c r="E48" s="22"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="22"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
@@ -2100,8 +2103,8 @@
       <c r="D49" s="6"/>
       <c r="E49" s="22"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
       <c r="I49" s="22"/>
       <c r="J49" s="5"/>
       <c r="K49" s="6"/>
@@ -2121,8 +2124,8 @@
       <c r="D50" s="6"/>
       <c r="E50" s="22"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
       <c r="I50" s="22"/>
       <c r="J50" s="5"/>
       <c r="K50" s="6"/>
@@ -2142,8 +2145,8 @@
       <c r="D51" s="6"/>
       <c r="E51" s="22"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
       <c r="I51" s="22"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6"/>
@@ -2456,9 +2459,11 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="22"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="F66" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
       <c r="I66" s="22"/>
       <c r="J66" s="5"/>
       <c r="K66" s="6"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC83FC-E586-462C-8EA9-DE7EB0823D5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC4533-700B-4CA0-AAD7-62B3D5B3F4C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Design CCS</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>0.0 a 100.0</t>
-  </si>
-  <si>
-    <t>100,0 / 1023,0</t>
   </si>
 </sst>
 </file>
@@ -357,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,12 +373,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -712,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,8 +752,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,8 +1035,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,11 +2448,9 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="22"/>
-      <c r="F66" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
       <c r="I66" s="22"/>
       <c r="J66" s="5"/>
       <c r="K66" s="6"/>
@@ -2503,7 +2490,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="22"/>
-      <c r="F68" s="28"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="22"/>
@@ -2524,7 +2511,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="22"/>
-      <c r="F69" s="28"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="22"/>
@@ -2797,7 +2784,7 @@
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="22"/>
-      <c r="F82" s="28"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="22"/>
@@ -2818,7 +2805,7 @@
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="22"/>
-      <c r="F83" s="28"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="22"/>
